--- a/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound12.xlsx
+++ b/seasons/RugbyUnion/MajorLeagueRugby/2024/forecasts/ReportRound12.xlsx
@@ -109,6 +109,24 @@
     <t>Metarie, LA</t>
   </si>
   <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>SEA</t>
+  </si>
+  <si>
+    <t>Arlington, TX</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>San Diego, CA</t>
+  </si>
+  <si>
     <t>HOU</t>
   </si>
   <si>
@@ -116,24 +134,6 @@
   </si>
   <si>
     <t>Houston, TX</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>San Diego, CA</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>SEA</t>
-  </si>
-  <si>
-    <t>Arlington, TX</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFF9E200"/>
+      <color rgb="FF1E191A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF63B445"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -205,15 +213,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF1E191A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF63B445"/>
+      <color rgb="FFF9E200"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -260,13 +260,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF020001"/>
+        <fgColor rgb="FF00AE94"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00653C"/>
+        <fgColor rgb="FF182A55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,13 +284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00AE94"/>
+        <fgColor rgb="FF020001"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF182A55"/>
+        <fgColor rgb="FF00653C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +339,19 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -747,23 +747,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="13">
-        <v>0.1378525112383199</v>
+        <v>0.1500645555748163</v>
       </c>
       <c r="C3" s="13"/>
       <c r="E3" s="13">
-        <v>0.5159775091713288</v>
+        <v>0.4883900873439693</v>
       </c>
       <c r="F3" s="13"/>
       <c r="H3" s="13">
-        <v>0.77328087847668</v>
+        <v>0.7659717965344988</v>
       </c>
       <c r="I3" s="13"/>
       <c r="K3" s="13">
-        <v>0.7112854308728078</v>
+        <v>0.6613976958669958</v>
       </c>
       <c r="L3" s="13"/>
       <c r="N3" s="13">
-        <v>0.6872784099883628</v>
+        <v>0.7640150280999949</v>
       </c>
       <c r="O3" s="13"/>
     </row>
@@ -772,23 +772,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="13">
-        <v>0.698147333380285</v>
+        <v>0.6851316814901698</v>
       </c>
       <c r="C4" s="13"/>
       <c r="E4" s="13">
-        <v>0.9999274971234744</v>
+        <v>0.9999170911715317</v>
       </c>
       <c r="F4" s="13"/>
       <c r="H4" s="13">
-        <v>0.9586287110389905</v>
+        <v>0.9353003818936854</v>
       </c>
       <c r="I4" s="13"/>
       <c r="K4" s="13">
-        <v>0.9002119221663092</v>
+        <v>0.8952864737250493</v>
       </c>
       <c r="L4" s="13"/>
       <c r="N4" s="13">
-        <v>0.9378490230814078</v>
+        <v>0.9568013859876926</v>
       </c>
       <c r="O4" s="13"/>
     </row>
@@ -797,23 +797,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="12">
-        <v>9.624136312080882</v>
+        <v>10.28139812930489</v>
       </c>
       <c r="C5" s="12"/>
       <c r="E5" s="12">
-        <v>51.59400993176914</v>
+        <v>48.83495954939922</v>
       </c>
       <c r="F5" s="12"/>
       <c r="H5" s="12">
-        <v>74.1289251805198</v>
+        <v>71.64137138185089</v>
       </c>
       <c r="I5" s="12"/>
       <c r="K5" s="12">
-        <v>64.03076249349017</v>
+        <v>59.21404108626353</v>
       </c>
       <c r="L5" s="12"/>
       <c r="N5" s="12">
-        <v>64.45633853925293</v>
+        <v>73.1010637801501</v>
       </c>
       <c r="O5" s="12"/>
     </row>
@@ -822,34 +822,34 @@
         <v>4</v>
       </c>
       <c r="B6" s="14">
-        <v>0.1884166</v>
+        <v>0.1789694</v>
       </c>
       <c r="C6" s="14">
-        <v>0.8115834</v>
+        <v>0.8026392</v>
       </c>
       <c r="E6" s="14">
-        <v>0.4949873</v>
+        <v>0.4809586</v>
       </c>
       <c r="F6" s="14">
-        <v>0.5050127</v>
+        <v>0.4913828</v>
       </c>
       <c r="H6" s="14">
-        <v>0.6191662999999999</v>
+        <v>0.3442264</v>
       </c>
       <c r="I6" s="14">
-        <v>0.3808337</v>
+        <v>0.6353964</v>
       </c>
       <c r="K6" s="14">
-        <v>0.3162097</v>
+        <v>0.304406</v>
       </c>
       <c r="L6" s="14">
-        <v>0.6837903</v>
+        <v>0.6717536</v>
       </c>
       <c r="N6" s="14">
-        <v>0.3542991</v>
+        <v>0.6076148</v>
       </c>
       <c r="O6" s="14">
-        <v>0.6457009</v>
+        <v>0.369661</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -857,34 +857,34 @@
         <v>5</v>
       </c>
       <c r="B7" s="15">
-        <v>23.86269</v>
+        <v>23.85415</v>
       </c>
       <c r="C7" s="15">
-        <v>41.8379774</v>
+        <v>41.830283</v>
       </c>
       <c r="E7" s="15">
-        <v>24.4302334</v>
+        <v>24.41908</v>
       </c>
       <c r="F7" s="15">
-        <v>24.636549</v>
+        <v>24.633452</v>
       </c>
       <c r="H7" s="15">
-        <v>30.7410794</v>
+        <v>26.5356288</v>
       </c>
       <c r="I7" s="15">
-        <v>25.1575992</v>
+        <v>33.4907986</v>
       </c>
       <c r="K7" s="15">
-        <v>19.145305</v>
+        <v>19.1539774</v>
       </c>
       <c r="L7" s="15">
-        <v>26.7850554</v>
+        <v>26.7880032</v>
       </c>
       <c r="N7" s="15">
-        <v>26.5396184</v>
+        <v>30.7422698</v>
       </c>
       <c r="O7" s="15">
-        <v>33.499159</v>
+        <v>25.1597826</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -904,10 +904,10 @@
         <v>7</v>
       </c>
       <c r="H8" s="15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I8" s="15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K8" s="15">
         <v>5</v>
@@ -916,10 +916,10 @@
         <v>8</v>
       </c>
       <c r="N8" s="15">
+        <v>10</v>
+      </c>
+      <c r="O8" s="15">
         <v>7</v>
-      </c>
-      <c r="O8" s="15">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -930,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="15">
         <v>10</v>
@@ -939,10 +939,10 @@
         <v>10</v>
       </c>
       <c r="H9" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9" s="15">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="K9" s="15">
         <v>7</v>
@@ -951,10 +951,10 @@
         <v>12</v>
       </c>
       <c r="N9" s="15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O9" s="15">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -974,10 +974,10 @@
         <v>12</v>
       </c>
       <c r="H10" s="15">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I10" s="15">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="K10" s="15">
         <v>9</v>
@@ -986,10 +986,10 @@
         <v>14</v>
       </c>
       <c r="N10" s="15">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O10" s="15">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1009,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="15">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I11" s="15">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K11" s="15">
         <v>10</v>
@@ -1021,10 +1021,10 @@
         <v>16</v>
       </c>
       <c r="N11" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O11" s="15">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1044,10 +1044,10 @@
         <v>15</v>
       </c>
       <c r="H12" s="15">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I12" s="15">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K12" s="15">
         <v>12</v>
@@ -1056,10 +1056,10 @@
         <v>18</v>
       </c>
       <c r="N12" s="15">
+        <v>21</v>
+      </c>
+      <c r="O12" s="15">
         <v>17</v>
-      </c>
-      <c r="O12" s="15">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1079,10 +1079,10 @@
         <v>17</v>
       </c>
       <c r="H13" s="15">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I13" s="15">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K13" s="15">
         <v>13</v>
@@ -1091,10 +1091,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O13" s="15">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1114,10 +1114,10 @@
         <v>19</v>
       </c>
       <c r="H14" s="15">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I14" s="15">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15">
         <v>14</v>
@@ -1126,10 +1126,10 @@
         <v>21</v>
       </c>
       <c r="N14" s="15">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O14" s="15">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1149,10 +1149,10 @@
         <v>20</v>
       </c>
       <c r="H15" s="15">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I15" s="15">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K15" s="15">
         <v>16</v>
@@ -1161,10 +1161,10 @@
         <v>23</v>
       </c>
       <c r="N15" s="15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="O15" s="15">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1184,10 +1184,10 @@
         <v>22</v>
       </c>
       <c r="H16" s="15">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I16" s="15">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="K16" s="15">
         <v>17</v>
@@ -1196,10 +1196,10 @@
         <v>24</v>
       </c>
       <c r="N16" s="15">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="O16" s="15">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1219,10 +1219,10 @@
         <v>24</v>
       </c>
       <c r="H17" s="15">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I17" s="15">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="K17" s="15">
         <v>18</v>
@@ -1231,10 +1231,10 @@
         <v>26</v>
       </c>
       <c r="N17" s="15">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O17" s="15">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1254,10 +1254,10 @@
         <v>25</v>
       </c>
       <c r="H18" s="15">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I18" s="15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K18" s="15">
         <v>20</v>
@@ -1266,10 +1266,10 @@
         <v>27</v>
       </c>
       <c r="N18" s="15">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O18" s="15">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1289,10 +1289,10 @@
         <v>27</v>
       </c>
       <c r="H19" s="15">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I19" s="15">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="K19" s="15">
         <v>21</v>
@@ -1301,10 +1301,10 @@
         <v>29</v>
       </c>
       <c r="N19" s="15">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O19" s="15">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1324,10 +1324,10 @@
         <v>29</v>
       </c>
       <c r="H20" s="15">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I20" s="15">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K20" s="15">
         <v>22</v>
@@ -1336,10 +1336,10 @@
         <v>31</v>
       </c>
       <c r="N20" s="15">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O20" s="15">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1359,10 +1359,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="15">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I21" s="15">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K21" s="15">
         <v>24</v>
@@ -1371,10 +1371,10 @@
         <v>32</v>
       </c>
       <c r="N21" s="15">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="O21" s="15">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1394,10 +1394,10 @@
         <v>32</v>
       </c>
       <c r="H22" s="15">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I22" s="15">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K22" s="15">
         <v>25</v>
@@ -1406,10 +1406,10 @@
         <v>34</v>
       </c>
       <c r="N22" s="15">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="O22" s="15">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1429,10 +1429,10 @@
         <v>34</v>
       </c>
       <c r="H23" s="15">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I23" s="15">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K23" s="15">
         <v>27</v>
@@ -1441,10 +1441,10 @@
         <v>37</v>
       </c>
       <c r="N23" s="15">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="O23" s="15">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1461,13 +1461,13 @@
         <v>37</v>
       </c>
       <c r="F24" s="15">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H24" s="15">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I24" s="15">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="K24" s="15">
         <v>30</v>
@@ -1476,10 +1476,10 @@
         <v>40</v>
       </c>
       <c r="N24" s="15">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="O24" s="15">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1499,10 +1499,10 @@
         <v>41</v>
       </c>
       <c r="H25" s="15">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I25" s="15">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="K25" s="15">
         <v>33</v>
@@ -1511,10 +1511,10 @@
         <v>43</v>
       </c>
       <c r="N25" s="15">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="O25" s="15">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1534,10 +1534,10 @@
         <v>46</v>
       </c>
       <c r="H26" s="15">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="I26" s="15">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="K26" s="15">
         <v>37</v>
@@ -1546,10 +1546,10 @@
         <v>49</v>
       </c>
       <c r="N26" s="15">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="O26" s="15">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
